--- a/tmp/lookup_column_combinations_from_dictionary.xlsx
+++ b/tmp/lookup_column_combinations_from_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_disk\edupunk\analytics\exploratory\join\pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A3B4B8-7CC0-47D5-A82D-FCA66F846CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF502EE5-CB07-480A-823D-D531AD065243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="855" windowWidth="18585" windowHeight="9120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10065" yWindow="3465" windowWidth="18585" windowHeight="9120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -584,9 +584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EC0190-7E43-4750-9E7A-6838BE8A146F}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/tmp/lookup_column_combinations_from_dictionary.xlsx
+++ b/tmp/lookup_column_combinations_from_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_disk\edupunk\analytics\exploratory\join\pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF502EE5-CB07-480A-823D-D531AD065243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8677CAF-603B-4F75-BA7E-B9B3C52668B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10065" yWindow="3465" windowWidth="18585" windowHeight="9120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="63">
   <si>
     <t>tiger + bear + crocodile + crane + tuna + lion</t>
   </si>
@@ -162,12 +162,6 @@
     <t>category_group_ordered</t>
   </si>
   <si>
-    <t>amphibian + mammal</t>
-  </si>
-  <si>
-    <t>amphibian + mammal + bird</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
@@ -189,15 +183,6 @@
     <t>fish + amphibian + mammal</t>
   </si>
   <si>
-    <t>real big one</t>
-  </si>
-  <si>
-    <t>land and water</t>
-  </si>
-  <si>
-    <t>land or water</t>
-  </si>
-  <si>
     <t>mammal + fish</t>
   </si>
   <si>
@@ -207,9 +192,6 @@
     <t>tiger + bear  + crane + tuna</t>
   </si>
   <si>
-    <t>fishes</t>
-  </si>
-  <si>
     <t>centipede</t>
   </si>
   <si>
@@ -219,7 +201,22 @@
     <t>mollusc</t>
   </si>
   <si>
-    <t>snail family</t>
+    <t>fish+amphibian+mammal</t>
+  </si>
+  <si>
+    <t>amphibian+mammal</t>
+  </si>
+  <si>
+    <t>snail</t>
+  </si>
+  <si>
+    <t>fish+amphibian+mammal+bird</t>
+  </si>
+  <si>
+    <t>amphibian+mammal+bird</t>
+  </si>
+  <si>
+    <t>mammal-fish</t>
   </si>
 </sst>
 </file>
@@ -582,9 +579,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EC0190-7E43-4750-9E7A-6838BE8A146F}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -660,10 +659,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -689,7 +688,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J4" s="2">
         <v>2</v>
@@ -712,10 +711,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="J5" s="2">
         <v>3</v>
@@ -816,10 +815,10 @@
         <v>1</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J9" s="2">
         <v>7</v>
@@ -842,10 +841,10 @@
         <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J10" s="2">
         <v>8</v>
@@ -871,7 +870,7 @@
         <v>12</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
@@ -897,7 +896,7 @@
         <v>15</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="J12" s="2">
         <v>2</v>
@@ -911,7 +910,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>24</v>
@@ -923,7 +922,7 @@
         <v>18</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J13" s="2">
         <v>3</v>
@@ -937,7 +936,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>6</v>
@@ -963,10 +962,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>3</v>
@@ -988,6 +987,12 @@
       <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="G16" s="2" t="s">
         <v>3</v>
       </c>
@@ -1012,10 +1017,10 @@
         <v>3</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J17" s="2">
         <v>7</v>
@@ -1029,13 +1034,13 @@
         <v>2</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
@@ -1049,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J19" s="2">
         <v>2</v>
@@ -1077,18 +1082,18 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1096,15 +1101,23 @@
         <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/tmp/lookup_column_combinations_from_dictionary.xlsx
+++ b/tmp/lookup_column_combinations_from_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_disk\edupunk\analytics\exploratory\join\pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8677CAF-603B-4F75-BA7E-B9B3C52668B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8BD1C1-9BC1-4C91-95BD-85A19D9B5CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10065" yWindow="3465" windowWidth="18585" windowHeight="9120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="3600" windowWidth="18585" windowHeight="9120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="64">
   <si>
     <t>tiger + bear + crocodile + crane + tuna + lion</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>mammal-fish</t>
+  </si>
+  <si>
+    <t>animal_groups</t>
   </si>
 </sst>
 </file>
@@ -582,7 +585,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +596,7 @@
     <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -630,7 +633,7 @@
         <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>32</v>
